--- a/pred_ohlcv/54_21/2020-01-19 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 IPX ohlcv.xlsx
@@ -3226,7 +3226,7 @@
         <v>-1586359.65265847</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1558154.41825847</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1560953.55805847</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1657472.44585847</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1680669.14915847</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1675910.11385847</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1675910.11385847</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1678593.99615847</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1675794.87695847</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1675794.87695847</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1673534.24605847</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1674234.02585847</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1673398.75295847</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1670440.55315847</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1664163.65935847</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1664163.65935847</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1654141.72875847</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1649694.564211838</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1656082.244811838</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1648014.887586586</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1649414.447186586</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1649414.447186586</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1653700.455286586</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1657994.386086586</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1655107.359586586</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1656506.919186586</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1652250.947986586</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1576473.352663263</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-1575942.347063263</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-1578741.466263263</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-1575942.347063263</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1578076.947763263</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1563138.609422741</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1543662.570363263</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-1553754.339163263</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1551647.867563263</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1555922.257963263</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1552255.699263263</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1562493.623999774</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-1555702.392499774</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1550707.703999774</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1550707.703999774</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1550707.703999774</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1553532.938599774</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-1563172.471699774</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1561009.242699774</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1561009.242699774</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1556789.302099774</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1562290.001199774</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1558791.102199774</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1357662.862793072</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1357662.862793072</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1368142.128493072</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1317418.233893072</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1268733.066593072</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1268733.066593072</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1160350.851593072</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1158235.512193072</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1208752.611093072</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1312209.005193072</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1317888.891993072</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1263365.453293072</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1262665.673493072</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1231751.298693072</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1234612.546893072</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1234612.546893072</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1233912.767093072</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1303972.528293072</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1313063.480893072</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1313063.480893072</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1338754.047593072</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1342952.726393072</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1342952.726393072</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1343652.506193072</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1339409.890893072</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1343637.953993072</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1341542.029193072</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1337299.525393072</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1339398.864793072</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1327936.700693072</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1324355.897793072</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1324355.897793072</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1325055.677593072</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1327863.322293072</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1329262.881893072</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1317865.805493072</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1315066.686293072</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1315066.686293072</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1579630.998293072</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1579630.998293072</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-1590796.842893072</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-1589397.283293072</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-1591573.772393072</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-1595572.891593072</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-1576047.170993072</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-1576746.950793072</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-1576746.950793072</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-1557226.680893072</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-1554977.153193072</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-1541021.478693072</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-1525753.40255045</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-1582191.294693072</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-1619273.089893072</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-1616530.731493072</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-1672762.361793072</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-1745041.458993072</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-1708719.649093072</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-1665213.778193072</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-1660381.037193072</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-1641385.314093072</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-1659646.890528088</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-1623711.127563104</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-1623711.127563104</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-1626519.246763104</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-1702728.209763104</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-1700236.208363104</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-1727401.530663104</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-1724602.411463104</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-1705453.010924104</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-1713573.410424104</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-1687889.797624104</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-1695243.308624104</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-1695243.308624104</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-1695243.308624104</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-1681707.406524104</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-1656971.394663104</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-1656544.734563104</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-1656544.734563104</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-1656544.734563104</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-1647796.965412434</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-1647796.965412434</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-1626084.055479701</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-1622634.905979701</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-1643841.614579701</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-1638088.639779701</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-1628029.610479701</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-1600544.308679701</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-1619536.714779701</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-1599846.828979701</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-1596532.217679701</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-1619798.095179701</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-1634712.692779701</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-1650766.614379701</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-1650766.614379701</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-1646102.910279701</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-1646102.910279701</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-1643122.445279701</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-1645253.579179701</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-1642457.125379701</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-1642457.125379701</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-1647463.790179701</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-1641042.836679701</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-1638410.638679701</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-1629487.381179701</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-1566616.435279701</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-900255.6739200427</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-1086931.717920043</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-1021678.177420043</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-1094244.891120043</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-1098979.521420043</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-1256486.265520043</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-1231311.467920043</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-1182910.298920043</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-1187687.002420043</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-1551623.030720043</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-1551623.030720043</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-1557363.293371336</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-1594856.923071336</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-1615030.106471336</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-1630668.776871336</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-1478627.941671336</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-1497850.239471336</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-1408727.453171336</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-1412250.352171336</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-1410092.677171336</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-1415866.088871336</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-1433922.888471336</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-1446789.997471336</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-1536033.441271336</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-1784347.300071336</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-1784347.300071336</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-1897405.807471336</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-1944625.835771336</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-1910208.462971336</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-1874074.012771336</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-1916385.668171336</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-1973839.261471336</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-2015299.575671336</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-1986746.509371336</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-1960693.579878433</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-1868560.563878433</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-1862180.600478433</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-1858572.412022283</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-1853515.140422283</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-1633293.214494561</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-1486461.779348362</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-1481635.469448362</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-1484430.718848362</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-1500093.492748362</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-1494114.677948361</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-1494114.677948361</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-1500546.837548361</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-1504779.408248361</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-1504779.408248361</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-1502294.537448362</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-1504393.876848361</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-1496422.986448362</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-1469008.212448362</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-1475542.541748362</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-1472722.510748362</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-1472722.510748362</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-1472722.510748362</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-1468358.911848362</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-1472606.506348361</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-1479546.476748361</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-1476047.577748362</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-1476047.577748362</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-1474648.018148361</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-1475347.797948361</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-1475347.797948361</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-1477328.972848361</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-1459561.319861323</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-1448179.019048361</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-1446053.992648361</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-1453387.923948361</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-1482559.205548361</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-1478975.471848361</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-1354344.681591447</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-1232533.438991447</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-1232533.438991447</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-1203001.938291447</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-1211268.382791447</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-1207523.092991447</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-1191353.269691447</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-1191353.269691447</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-1186802.466094595</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-886195.5586253651</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-886195.5586253651</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-886195.5586253651</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-892278.0542253652</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-567169.6225253651</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-441267.5251253651</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-434336.8057253651</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-435036.5855253651</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-434231.4136253651</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-431109.9802253651</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-429615.2823253651</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-431805.013625365</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-400879.3731253651</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-484202.1529253651</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>881401.150745075</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>721740.4441450749</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>734536.520604183</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>629879.847604183</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>627480.288004183</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>467777.1132041829</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>631501.877104183</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>546965.148739307</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>372111.230339307</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>372111.230339307</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>372111.230339307</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>476030.047239307</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>478189.818339307</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>478189.818339307</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>477490.038539307</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>439232.211739307</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>444536.0357393071</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>451110.7041393071</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>424643.0070393071</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>424643.0070393071</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>419605.8675393071</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>475926.8559393071</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>443100.8248393071</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>531427.7451393071</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>541188.2155393071</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>541188.2155393071</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>555834.1394393072</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>624376.4407615381</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>631800.2981393071</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>639343.2946393071</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>639343.2946393071</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>571434.8096393071</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>577877.1887393071</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>572707.0681393071</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>571288.374839307</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>504120.0491393071</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>481137.787917076</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -34842,7 +34842,7 @@
         <v>-126279.0495761473</v>
       </c>
       <c r="H1325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1326" spans="1:8">
@@ -34868,7 +34868,7 @@
         <v>-242461.6218761473</v>
       </c>
       <c r="H1326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1327" spans="1:8">
@@ -34894,7 +34894,7 @@
         <v>-351124.6044312353</v>
       </c>
       <c r="H1327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1328" spans="1:8">
@@ -34920,7 +34920,7 @@
         <v>-295051.0476977483</v>
       </c>
       <c r="H1328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1329" spans="1:8">
@@ -34946,7 +34946,7 @@
         <v>-333062.6761070184</v>
       </c>
       <c r="H1329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1330" spans="1:8">
@@ -34972,7 +34972,7 @@
         <v>-486344.7299070184</v>
       </c>
       <c r="H1330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1331" spans="1:8">
@@ -34998,7 +34998,7 @@
         <v>-495494.4396070184</v>
       </c>
       <c r="H1331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1332" spans="1:8">
@@ -35024,7 +35024,7 @@
         <v>-464570.8289070184</v>
       </c>
       <c r="H1332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -35544,7 +35544,7 @@
         <v>-578406.6403552995</v>
       </c>
       <c r="H1352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1353" spans="1:8">
@@ -35570,7 +35570,7 @@
         <v>-578406.6403552995</v>
       </c>
       <c r="H1353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1354" spans="1:8">
@@ -35596,7 +35596,7 @@
         <v>-578406.6403552995</v>
       </c>
       <c r="H1354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1355" spans="1:8">
@@ -35622,7 +35622,7 @@
         <v>-574225.4795705695</v>
       </c>
       <c r="H1355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-19 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 IPX ohlcv.xlsx
@@ -3616,7 +3616,7 @@
         <v>-1668325.28225847</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1664163.65935847</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1654141.72875847</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1648014.887586586</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1649414.447186586</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1649414.447186586</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1653700.455286586</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1657994.386086586</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1655107.359586586</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1656506.919186586</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1652250.947986586</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1576473.352663263</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-1565247.710363263</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1569528.458563263</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-1576642.126863263</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-1576642.126863263</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1575942.347063263</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1575942.347063263</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-1575942.347063263</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1578741.466263263</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-1578741.466263263</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-1575942.347063263</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1578076.947763263</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1563138.609422741</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1558861.442463263</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1558861.442463263</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1558861.442463263</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1558161.662663263</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1558161.662663263</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1543690.904563263</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1545793.644263263</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1541504.495763263</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1543662.570363263</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-1553754.339163263</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1551647.867563263</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1555922.257963263</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1552255.699263263</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1556207.117463263</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1535162.819299774</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1562493.623999774</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-1555702.392499774</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1550707.703999774</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1550707.703999774</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1550707.703999774</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1553532.938599774</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1561009.242699774</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1357662.862793072</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1357662.862793072</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1368142.128493072</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1317418.233893072</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1268733.066593072</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1268733.066593072</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1160350.851593072</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1158235.512193072</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1208752.611093072</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1312209.005193072</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1317888.891993072</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1263365.453293072</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1262665.673493072</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1231751.298693072</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1234612.546893072</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1234612.546893072</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1233912.767093072</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1303972.528293072</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1313063.480893072</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1313063.480893072</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1338754.047593072</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1342952.726393072</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1342952.726393072</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1343652.506193072</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1339409.890893072</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1343637.953993072</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1341542.029193072</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1337299.525393072</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1339398.864793072</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1327936.700693072</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1324355.897793072</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1324355.897793072</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1325055.677593072</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1327863.322293072</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1329262.881893072</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1317865.805493072</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1315066.686293072</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1315066.686293072</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1579630.998293072</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1579630.998293072</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-1590796.842893072</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-1589397.283293072</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-1591573.772393072</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-1595572.891593072</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-1576047.170993072</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-1576746.950793072</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-1576746.950793072</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-1557226.680893072</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-1554977.153193072</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-1541021.478693072</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-1525753.40255045</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-1582191.294693072</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-1619273.089893072</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-1616530.731493072</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-1672762.361793072</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-1745041.458993072</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-1708719.649093072</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-1660992.060593072</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-1665213.778193072</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-1660381.037193072</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-1641385.314093072</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-1659646.890528088</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-1623711.127563104</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-1623711.127563104</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-1626519.246763104</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-1702728.209763104</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-1700236.208363104</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-1727401.530663104</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-1724602.411463104</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-1719266.880763104</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-1705453.010924104</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-1713573.410424104</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-1724276.276324104</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-1696897.963624104</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-1681707.406524104</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-1656971.394663104</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-1656544.734563104</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-1656544.734563104</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-1656544.734563104</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-1656544.734563104</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-1647796.965412434</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-1647796.965412434</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-1626084.055479701</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-1622634.905979701</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-1627619.968179701</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-1629800.600379701</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-1645940.953979701</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-1643841.614579701</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-1638088.639779701</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-1628029.610479701</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-1600544.308679701</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-1619536.714779701</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-1599846.828979701</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-1596532.217679701</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-1627696.818379701</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-1613166.005879701</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-1645962.263779701</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-1619798.095179701</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-1634712.692779701</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-1650766.614379701</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-1650766.614379701</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-1646102.910279701</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-1646102.910279701</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-1643122.445279701</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-1645253.579179701</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-1642457.125379701</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-1642457.125379701</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-1647463.790179701</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-1641042.836679701</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-1638410.638679701</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-1629487.381179701</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-1566616.435279701</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-1544224.967653207</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-1440150.134732486</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-900255.6739200427</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-1086931.717920043</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-1021678.177420043</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-1094244.891120043</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-1098979.521420043</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-1256486.265520043</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-1231311.467920043</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-1182910.298920043</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-1187687.002420043</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-1551623.030720043</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-1551623.030720043</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-1557363.293371336</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-1594856.923071336</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-1615030.106471336</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-1630668.776871336</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-1478627.941671336</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-1497850.239471336</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-1408727.453171336</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-1412250.352171336</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-1410092.677171336</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-1415866.088871336</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-1433922.888471336</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-1446789.997471336</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-1536033.441271336</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-1784347.300071336</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-1784347.300071336</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-1897405.807471336</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-1944625.835771336</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-1910208.462971336</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-1874074.012771336</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-1916385.668171336</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-1973839.261471336</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-2015299.575671336</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-1986746.509371336</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-1960693.579878433</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-1868560.563878433</v>
       </c>
       <c r="H563">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-1862180.600478433</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-1858572.412022283</v>
       </c>
       <c r="H565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-1853515.140422283</v>
       </c>
       <c r="H566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-1633293.214494561</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-1486461.779348362</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-1481635.469448362</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-1484430.718848362</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-1500093.492748362</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-1494114.677948361</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-1494114.677948361</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-1500546.837548361</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-1504779.408248361</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-1504779.408248361</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-1502294.537448362</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-1504393.876848361</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-1496422.986448362</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-1469008.212448362</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-1475542.541748362</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-1472722.510748362</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-1472722.510748362</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-1472722.510748362</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-1468358.911848362</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-1472606.506348361</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-1479546.476748361</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-1476047.577748362</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-1476047.577748362</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-1474648.018148361</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-1475347.797948361</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-1475347.797948361</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-1477328.972848361</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-1459561.319861323</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-1448179.019048361</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-1446053.992648361</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-1453387.923948361</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-1482559.205548361</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-1478975.471848361</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-1354344.681591447</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-1232533.438991447</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-1232533.438991447</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-1203001.938291447</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-1211268.382791447</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-1207523.092991447</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-1191353.269691447</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-1191353.269691447</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-1186802.466094595</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-886195.5586253651</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-886195.5586253651</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-886195.5586253651</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-892278.0542253652</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-567169.6225253651</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-441267.5251253651</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-434336.8057253651</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-435036.5855253651</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-434231.4136253651</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-431109.9802253651</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-429615.2823253651</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-431805.013625365</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-400879.3731253651</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-484202.1529253651</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>573582.7515450749</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>573582.7515450749</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>683754.6885450749</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>881401.150745075</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>721740.4441450749</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>734536.520604183</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>718051.693704183</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>629879.847604183</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>627480.288004183</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>467777.1132041829</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>631501.877104183</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>546965.148739307</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>544687.738139307</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>540305.886039307</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>372111.230339307</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>372111.230339307</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>372111.230339307</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>330357.436739307</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>476030.047239307</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>478189.818339307</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>478189.818339307</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>477490.038539307</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>439232.211739307</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>444536.0357393071</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>451110.7041393071</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>424643.0070393071</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>419605.8675393071</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>475926.8559393071</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>443100.8248393071</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>531427.7451393071</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>541188.2155393071</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>541188.2155393071</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>555834.1394393072</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>624376.4407615381</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>631800.2981393071</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>639343.2946393071</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>639343.2946393071</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>571434.8096393071</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>577877.1887393071</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>572707.0681393071</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>571288.374839307</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>504120.0491393071</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>481137.787917076</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>494425.891517076</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>490417.062217076</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>670232.1267170761</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>665205.3030170761</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>591527.0375170761</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>634413.2975170761</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -34842,7 +34842,7 @@
         <v>-126279.0495761473</v>
       </c>
       <c r="H1325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1326" spans="1:8">
@@ -34868,7 +34868,7 @@
         <v>-242461.6218761473</v>
       </c>
       <c r="H1326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1327" spans="1:8">
@@ -34894,7 +34894,7 @@
         <v>-351124.6044312353</v>
       </c>
       <c r="H1327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1328" spans="1:8">
@@ -34920,7 +34920,7 @@
         <v>-295051.0476977483</v>
       </c>
       <c r="H1328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1329" spans="1:8">
@@ -34946,7 +34946,7 @@
         <v>-333062.6761070184</v>
       </c>
       <c r="H1329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1330" spans="1:8">
@@ -34972,7 +34972,7 @@
         <v>-486344.7299070184</v>
       </c>
       <c r="H1330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1331" spans="1:8">
@@ -34998,7 +34998,7 @@
         <v>-495494.4396070184</v>
       </c>
       <c r="H1331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1332" spans="1:8">
@@ -35024,7 +35024,7 @@
         <v>-464570.8289070184</v>
       </c>
       <c r="H1332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -35544,7 +35544,7 @@
         <v>-578406.6403552995</v>
       </c>
       <c r="H1352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1353" spans="1:8">
@@ -35570,7 +35570,7 @@
         <v>-578406.6403552995</v>
       </c>
       <c r="H1353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1354" spans="1:8">
@@ -35596,7 +35596,7 @@
         <v>-578406.6403552995</v>
       </c>
       <c r="H1354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1355" spans="1:8">
@@ -35622,7 +35622,7 @@
         <v>-574225.4795705695</v>
       </c>
       <c r="H1355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
